--- a/config_12.29/fish_config.xlsx
+++ b/config_12.29/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="204">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1219,10 +1219,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>by_iocn_jzy</t>
-  </si>
-  <si>
-    <t>袜子BOSS</t>
+    <t>金牛BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_jn_gb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1352,7 +1357,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,6 +1452,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,7 +1738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4309,14 +4317,14 @@
       <c r="C36" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="F36" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>201</v>
       </c>
       <c r="G36" s="15">
         <v>2.64</v>

--- a/config_12.29/fish_config.xlsx
+++ b/config_12.29/fish_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="205">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1228,6 +1228,10 @@
   </si>
   <si>
     <t>3dby_icon_jn_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1736,9 +1740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4369,7 +4373,9 @@
       <c r="U36" s="19">
         <v>0.1</v>
       </c>
-      <c r="V36" s="14"/>
+      <c r="V36" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="W36" s="20" t="s">
         <v>120</v>
       </c>

--- a/config_12.29/fish_config.xlsx
+++ b/config_12.29/fish_config.xlsx
@@ -1223,15 +1223,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_imgf_jn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_jn_gb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,9 +1456,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,9 +1737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V39" sqref="V39"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4321,14 +4318,14 @@
       <c r="C36" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="31" t="s">
         <v>203</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>201</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G36" s="15">
         <v>2.64</v>
@@ -4374,7 +4371,7 @@
         <v>0.1</v>
       </c>
       <c r="V36" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W36" s="20" t="s">
         <v>120</v>
